--- a/biology/Zoologie/Ceratophrys_stolzmanni/Ceratophrys_stolzmanni.xlsx
+++ b/biology/Zoologie/Ceratophrys_stolzmanni/Ceratophrys_stolzmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratophrys stolzmanni est une espèce d'amphibiens de la famille des Ceratophryidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratophrys stolzmanni est une espèce d'amphibiens de la famille des Ceratophryidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre le niveau de la mer et 100 m d'altitude le long des côtes du golfe de Guayaquil[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre le niveau de la mer et 100 m d'altitude le long des côtes du golfe de Guayaquil :
 dans le Nord-Ouest du Pérou dans la région de Tumbes ;
 en Équateur dans les provinces de Guayas, de Santa Elena et de Manabí.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'UICN reconnait deux sous-espèces Ceratophrys stolzmanni scaphiopeza Peters, 1967[2] de l'Équateur et  Ceratophrys stolzmanni stolzmanni Steindachner, 1882 du Pérou.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UICN reconnait deux sous-espèces Ceratophrys stolzmanni scaphiopeza Peters, 1967 de l'Équateur et  Ceratophrys stolzmanni stolzmanni Steindachner, 1882 du Pérou.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'ornithologue Jan Sztolcman[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'ornithologue Jan Sztolcman.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Steindachner, 1882 : Batrachologische Beiträge. Sitzungsberichte der Kaiserlichen Akademie der Wissenschaften. Mathematisch-Naturwissenschaftliche Classe, Wien, vol. 85, p. 188-194 (texte intégral).</t>
         </is>
